--- a/data/trans_camb/P24_6_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_6_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,32</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,15</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 6,48</t>
+          <t>-10,73; 7,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 8,99</t>
+          <t>-3,04; 15,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 10,13</t>
+          <t>-4,31; 14,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 8,82</t>
+          <t>-4,29; 15,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 7,9</t>
+          <t>-2,97; 14,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 9,63</t>
+          <t>-5,49; 11,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 6,45</t>
+          <t>-4,41; 13,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 6,87</t>
+          <t>-1,46; 17,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 8,1</t>
+          <t>-4,26; 8,85</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 10,83</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 10,68</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 13,7</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>-8,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>29,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>9,82%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18,44%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30,53%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 47,06</t>
+          <t>-48,19; 57,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 67,39</t>
+          <t>-14,59; 117,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 74,91</t>
+          <t>-20,04; 107,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 30,18</t>
+          <t>-20,33; 119,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 26,92</t>
+          <t>-9,52; 62,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 33,07</t>
+          <t>-16,29; 46,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 27,32</t>
+          <t>-14,59; 53,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 30,82</t>
+          <t>-3,78; 71,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 35,56</t>
+          <t>-16,72; 43,06</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; 54,09</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-9,45; 52,02</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 67,09</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>9,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>11,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>10,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>-2,82</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10,43</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 6,28</t>
+          <t>-7,14; 10,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 11,75</t>
+          <t>-0,46; 19,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 10,13</t>
+          <t>-1,74; 16,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 4,6</t>
+          <t>2,17; 22,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 6,78</t>
+          <t>-16,88; 4,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 14,13</t>
+          <t>-16,06; 5,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 2,16</t>
+          <t>-7,48; 15,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 5,81</t>
+          <t>-0,86; 23,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 8,8</t>
+          <t>-10,08; 4,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,53; 8,94</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 12,56</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 19,15</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,59%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>60,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,41%</t>
+          <t>73,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,93%</t>
+          <t>-17,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>-12,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-11,12%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>-10,26%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>37,94%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,04; 50,72</t>
+          <t>-35,93; 93,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 91,11</t>
+          <t>-3,01; 180,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 80,46</t>
+          <t>-11,32; 150,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 14,89</t>
+          <t>7,43; 204,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 22,54</t>
+          <t>-38,24; 12,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 46,36</t>
+          <t>-36,1; 18,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,21; 8,83</t>
+          <t>-17,0; 47,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 24,49</t>
+          <t>-2,16; 72,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 37,61</t>
+          <t>-32,49; 19,38</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-18,09; 37,42</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; 53,06</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 80,75</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-11,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,86</t>
+          <t>25,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>31,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>-2,16</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-4,22</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12,37</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 14,3</t>
+          <t>-24,7; 23,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 13,99</t>
+          <t>-33,19; 7,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 39,65</t>
+          <t>-3,36; 63,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 25,21</t>
+          <t>3,29; 67,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 27,71</t>
+          <t>-24,07; 18,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 17,78</t>
+          <t>-18,89; 23,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 15,71</t>
+          <t>-22,66; 20,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 15,65</t>
+          <t>-19,93; 21,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 22,11</t>
+          <t>-18,09; 15,08</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-21,38; 11,75</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 34,67</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 39,49</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,82%</t>
+          <t>-6,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-55,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>84,06%</t>
+          <t>121,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>154,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>-9,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>-2,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>37,87%</t>
+          <t>-7,82%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-15,27%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44,81%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>60,73%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,57; 134,14</t>
+          <t>-77,86; 286,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,6; 151,58</t>
+          <t>-94,58; 142,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 385,87</t>
+          <t>-21,36; 819,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 119,54</t>
+          <t>-6,25; 868,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 128,13</t>
+          <t>-54,19; 82,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,08; 83,54</t>
+          <t>-41,89; 95,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 90,68</t>
+          <t>-49,56; 89,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 87,2</t>
+          <t>-44,56; 101,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 128,74</t>
+          <t>-52,52; 78,23</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-57,51; 57,27</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-18,85; 199,3</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-10,28; 215,79</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 4,3</t>
+          <t>-5,99; 6,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 7,18</t>
+          <t>-0,63; 12,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 9,65</t>
+          <t>1,35; 16,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 5,52</t>
+          <t>4,09; 20,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 6,58</t>
+          <t>-6,6; 6,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 8,57</t>
+          <t>-6,38; 6,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,77</t>
+          <t>-3,57; 10,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,41</t>
+          <t>1,41; 16,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 7,65</t>
+          <t>-5,11; 4,21</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 7,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 10,24</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 15,11</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>65,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>-0,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,15%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>21,18%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>37,02%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 28,46</t>
+          <t>-30,16; 43,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 49,4</t>
+          <t>-3,23; 90,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 66,86</t>
+          <t>6,52; 111,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 18,41</t>
+          <t>17,12; 135,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 21,55</t>
+          <t>-18,31; 21,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 27,86</t>
+          <t>-17,94; 23,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 16,39</t>
+          <t>-9,8; 35,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 23,26</t>
+          <t>3,5; 55,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 32,57</t>
+          <t>-17,71; 18,26</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-10,03; 30,36</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 43,26</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 64,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
